--- a/Marketing/24.03.2025/Book1.xlsx
+++ b/Marketing/24.03.2025/Book1.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://www.instagram.com/neucenttechnologies?igsh=MXF1b2g1bnF4bm8xbw==</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/CDiir--10Tk?si=5ZY7Jh361z56vTAk</t>
   </si>
 </sst>
 </file>
@@ -350,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -361,6 +364,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing/24.03.2025/Book1.xlsx
+++ b/Marketing/24.03.2025/Book1.xlsx
@@ -16,12 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.instagram.com/neucenttechnologies?igsh=MXF1b2g1bnF4bm8xbw==</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/CDiir--10Tk?si=5ZY7Jh361z56vTAk</t>
+  </si>
+  <si>
+    <t>neucenttechnologies Ready to Change your Technology?</t>
+  </si>
+  <si>
+    <t>We help MSME companies to achieve their Growth</t>
+  </si>
+  <si>
+    <t>To Learn more and book your Service today!</t>
+  </si>
+  <si>
+    <t>#itservicescompany #BusinessServices #Noida #technology #NewDelhi #DelhiServices "</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/neucent-technologies-826935245_itservicescompany-businessservices-noida-activity-7309878071367450624-AgG2?utm_source=share&amp;utm_medium=member_android&amp;rcm=ACoAADzUFV4Bpes_yBSmhzbIgQfPf1J8IEnX-ns</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/17yUZNbUCH/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/1B6VWn1rv7/</t>
   </si>
 </sst>
 </file>
@@ -353,22 +374,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="N14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing/24.03.2025/Book1.xlsx
+++ b/Marketing/24.03.2025/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://www.instagram.com/neucenttechnologies?igsh=MXF1b2g1bnF4bm8xbw==</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/share/p/1B6VWn1rv7/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/stories/neucenttechnologies/3595314588934425452?utm_source=ig_story_item_share&amp;igsh=NjkwMHk5Zms4YmE3</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,6 +408,11 @@
     <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
